--- a/_resource/excel/1102-属性重置.xlsx
+++ b/_resource/excel/1102-属性重置.xlsx
@@ -123,7 +123,7 @@
     <t>Descripe(string)</t>
   </si>
   <si>
-    <t>NoteId(int)</t>
+    <t>Id(int)</t>
   </si>
   <si>
     <t>TimeType(int)</t>
@@ -191,10 +191,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -216,23 +216,24 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,6 +247,81 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -253,22 +329,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,6 +346,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -292,76 +362,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -378,7 +378,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -417,7 +417,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,181 +585,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,6 +626,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -647,15 +665,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -667,26 +676,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -715,17 +704,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -734,152 +728,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -898,7 +892,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -917,15 +911,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -1353,7 +1338,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F$1:F$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1379,24 +1364,10 @@
     <col min="20" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="2:16">
+    <row r="1" s="1" customFormat="1" spans="2:2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:11">
       <c r="A2" s="2" t="s">
@@ -1433,7 +1404,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:16">
+    <row r="3" s="1" customFormat="1" spans="1:11">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -1467,11 +1438,6 @@
       <c r="K3" s="1">
         <v>1</v>
       </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
     </row>
     <row r="4" s="3" customFormat="1" spans="1:16">
       <c r="A4" s="3" t="s">
@@ -1507,8 +1473,8 @@
       <c r="K4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
